--- a/Data_clean/MCAS/Estados_US/Edos_USA_2024/ARKANSAS_2024.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2024/ARKANSAS_2024.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1082"/>
+  <dimension ref="A1:D1076"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -452,7 +452,7 @@
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C7">
@@ -465,7 +465,7 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C8">
@@ -478,7 +478,7 @@
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>San Francisco de los Romo</t>
+          <t>San Francisco De Los Romo</t>
         </is>
       </c>
       <c r="C9">
@@ -745,7 +745,7 @@
     <row r="28">
       <c r="B28" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C28">
@@ -797,7 +797,7 @@
     <row r="32">
       <c r="B32" t="inlineStr">
         <is>
-          <t>Bejucal de Ocampo</t>
+          <t>Bejucal De Ocampo</t>
         </is>
       </c>
       <c r="C32">
@@ -823,7 +823,7 @@
     <row r="34">
       <c r="B34" t="inlineStr">
         <is>
-          <t>Benemérito de las Américas</t>
+          <t>Benemérito De Las Américas</t>
         </is>
       </c>
       <c r="C34">
@@ -914,7 +914,7 @@
     <row r="41">
       <c r="B41" t="inlineStr">
         <is>
-          <t>Chiapa de Corzo</t>
+          <t>Chiapa De Corzo</t>
         </is>
       </c>
       <c r="C41">
@@ -1187,7 +1187,7 @@
     <row r="62">
       <c r="B62" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C62">
@@ -1213,7 +1213,7 @@
     <row r="64">
       <c r="B64" t="inlineStr">
         <is>
-          <t>Montecristo de Guerrero</t>
+          <t>Montecristo De Guerrero</t>
         </is>
       </c>
       <c r="C64">
@@ -1252,7 +1252,7 @@
     <row r="67">
       <c r="B67" t="inlineStr">
         <is>
-          <t>Ocozocoautla de Espinosa</t>
+          <t>Ocozocoautla De Espinosa</t>
         </is>
       </c>
       <c r="C67">
@@ -1317,7 +1317,7 @@
     <row r="72">
       <c r="B72" t="inlineStr">
         <is>
-          <t>Salto de Agua</t>
+          <t>Salto De Agua</t>
         </is>
       </c>
       <c r="C72">
@@ -1343,7 +1343,7 @@
     <row r="74">
       <c r="B74" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C74">
@@ -1686,7 +1686,7 @@
     <row r="100">
       <c r="B100" t="inlineStr">
         <is>
-          <t>Coyame del Sotol</t>
+          <t>Coyame Del Sotol</t>
         </is>
       </c>
       <c r="C100">
@@ -1777,7 +1777,7 @@
     <row r="107">
       <c r="B107" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C107">
@@ -1946,7 +1946,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -1990,7 +1990,7 @@
     <row r="123">
       <c r="B123" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C123">
@@ -2185,7 +2185,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Coahuila de Zaragoza</t>
+          <t>Coahuila De Zaragoza</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -2320,7 +2320,7 @@
     <row r="148">
       <c r="B148" t="inlineStr">
         <is>
-          <t>San Juan de Sabinas</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C148">
@@ -2616,7 +2616,7 @@
     <row r="170">
       <c r="B170" t="inlineStr">
         <is>
-          <t>Nombre de Dios</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C170">
@@ -2720,7 +2720,7 @@
     <row r="178">
       <c r="B178" t="inlineStr">
         <is>
-          <t>San Juan de Guadalupe</t>
+          <t>San Juan De Guadalupe</t>
         </is>
       </c>
       <c r="C178">
@@ -2733,7 +2733,7 @@
     <row r="179">
       <c r="B179" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C179">
@@ -2746,7 +2746,7 @@
     <row r="180">
       <c r="B180" t="inlineStr">
         <is>
-          <t>San Luis del Cordero</t>
+          <t>San Luis Del Cordero</t>
         </is>
       </c>
       <c r="C180">
@@ -2863,12 +2863,12 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C189">
@@ -2894,7 +2894,7 @@
     <row r="191">
       <c r="B191" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C191">
@@ -2946,7 +2946,7 @@
     <row r="195">
       <c r="B195" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C195">
@@ -3076,7 +3076,7 @@
     <row r="205">
       <c r="B205" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C205">
@@ -3115,7 +3115,7 @@
     <row r="208">
       <c r="B208" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C208">
@@ -3128,7 +3128,7 @@
     <row r="209">
       <c r="B209" t="inlineStr">
         <is>
-          <t>Ixtapan del Oro</t>
+          <t>Ixtapan Del Oro</t>
         </is>
       </c>
       <c r="C209">
@@ -3232,7 +3232,7 @@
     <row r="217">
       <c r="B217" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C217">
@@ -3323,7 +3323,7 @@
     <row r="224">
       <c r="B224" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C224">
@@ -3336,7 +3336,7 @@
     <row r="225">
       <c r="B225" t="inlineStr">
         <is>
-          <t>San Martín de las Pirámides</t>
+          <t>San Martín De Las Pirámides</t>
         </is>
       </c>
       <c r="C225">
@@ -3414,7 +3414,7 @@
     <row r="231">
       <c r="B231" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C231">
@@ -3492,7 +3492,7 @@
     <row r="237">
       <c r="B237" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C237">
@@ -3544,7 +3544,7 @@
     <row r="241">
       <c r="B241" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C241">
@@ -3557,7 +3557,7 @@
     <row r="242">
       <c r="B242" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C242">
@@ -3596,7 +3596,7 @@
     <row r="245">
       <c r="B245" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C245">
@@ -3609,7 +3609,7 @@
     <row r="246">
       <c r="B246" t="inlineStr">
         <is>
-          <t>Villa del Carbón</t>
+          <t>Villa Del Carbón</t>
         </is>
       </c>
       <c r="C246">
@@ -3718,7 +3718,7 @@
     <row r="254">
       <c r="B254" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C254">
@@ -3731,7 +3731,7 @@
     <row r="255">
       <c r="B255" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C255">
@@ -3835,7 +3835,7 @@
     <row r="263">
       <c r="B263" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C263">
@@ -3952,7 +3952,7 @@
     <row r="272">
       <c r="B272" t="inlineStr">
         <is>
-          <t>Purísima del Rincón</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C272">
@@ -4017,7 +4017,7 @@
     <row r="277">
       <c r="B277" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C277">
@@ -4043,7 +4043,7 @@
     <row r="279">
       <c r="B279" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C279">
@@ -4069,7 +4069,7 @@
     <row r="281">
       <c r="B281" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C281">
@@ -4082,7 +4082,7 @@
     <row r="282">
       <c r="B282" t="inlineStr">
         <is>
-          <t>San Miguel de Allende</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C282">
@@ -4095,7 +4095,7 @@
     <row r="283">
       <c r="B283" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C283">
@@ -4121,7 +4121,7 @@
     <row r="285">
       <c r="B285" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C285">
@@ -4186,7 +4186,7 @@
     <row r="290">
       <c r="B290" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C290">
@@ -4269,7 +4269,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C296">
@@ -4295,7 +4295,7 @@
     <row r="298">
       <c r="B298" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C298">
@@ -4308,7 +4308,7 @@
     <row r="299">
       <c r="B299" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C299">
@@ -4347,7 +4347,7 @@
     <row r="302">
       <c r="B302" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C302">
@@ -4373,7 +4373,7 @@
     <row r="304">
       <c r="B304" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C304">
@@ -4386,7 +4386,7 @@
     <row r="305">
       <c r="B305" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C305">
@@ -4412,7 +4412,7 @@
     <row r="307">
       <c r="B307" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C307">
@@ -4425,7 +4425,7 @@
     <row r="308">
       <c r="B308" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C308">
@@ -4490,7 +4490,7 @@
     <row r="313">
       <c r="B313" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C313">
@@ -4503,7 +4503,7 @@
     <row r="314">
       <c r="B314" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C314">
@@ -4529,7 +4529,7 @@
     <row r="316">
       <c r="B316" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C316">
@@ -4542,7 +4542,7 @@
     <row r="317">
       <c r="B317" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C317">
@@ -4633,7 +4633,7 @@
     <row r="324">
       <c r="B324" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C324">
@@ -4646,7 +4646,7 @@
     <row r="325">
       <c r="B325" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C325">
@@ -4672,7 +4672,7 @@
     <row r="327">
       <c r="B327" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C327">
@@ -4685,7 +4685,7 @@
     <row r="328">
       <c r="B328" t="inlineStr">
         <is>
-          <t>José Joaquín de Herrera</t>
+          <t>José Joaquín De Herrera</t>
         </is>
       </c>
       <c r="C328">
@@ -4867,7 +4867,7 @@
     <row r="342">
       <c r="B342" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C342">
@@ -4906,7 +4906,7 @@
     <row r="345">
       <c r="B345" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C345">
@@ -4932,7 +4932,7 @@
     <row r="347">
       <c r="B347" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C347">
@@ -4971,7 +4971,7 @@
     <row r="350">
       <c r="B350" t="inlineStr">
         <is>
-          <t>Tlalixtaquilla de Maldonado</t>
+          <t>Tlalixtaquilla De Maldonado</t>
         </is>
       </c>
       <c r="C350">
@@ -4984,7 +4984,7 @@
     <row r="351">
       <c r="B351" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C351">
@@ -5010,7 +5010,7 @@
     <row r="353">
       <c r="B353" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C353">
@@ -5036,7 +5036,7 @@
     <row r="355">
       <c r="B355" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C355">
@@ -5119,7 +5119,7 @@
     <row r="361">
       <c r="B361" t="inlineStr">
         <is>
-          <t>Agua Blanca de Iturbide</t>
+          <t>Agua Blanca De Iturbide</t>
         </is>
       </c>
       <c r="C361">
@@ -5197,7 +5197,7 @@
     <row r="367">
       <c r="B367" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C367">
@@ -5236,7 +5236,7 @@
     <row r="370">
       <c r="B370" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C370">
@@ -5314,7 +5314,7 @@
     <row r="376">
       <c r="B376" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C376">
@@ -5353,7 +5353,7 @@
     <row r="379">
       <c r="B379" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C379">
@@ -5418,7 +5418,7 @@
     <row r="384">
       <c r="B384" t="inlineStr">
         <is>
-          <t>Mineral de la Reforma</t>
+          <t>Mineral De La Reforma</t>
         </is>
       </c>
       <c r="C384">
@@ -5431,7 +5431,7 @@
     <row r="385">
       <c r="B385" t="inlineStr">
         <is>
-          <t>Mineral del Monte</t>
+          <t>Mineral Del Monte</t>
         </is>
       </c>
       <c r="C385">
@@ -5457,7 +5457,7 @@
     <row r="387">
       <c r="B387" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C387">
@@ -5483,7 +5483,7 @@
     <row r="389">
       <c r="B389" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C389">
@@ -5522,7 +5522,7 @@
     <row r="392">
       <c r="B392" t="inlineStr">
         <is>
-          <t>Santiago Tulantepec de Lugo Guerrero</t>
+          <t>Santiago Tulantepec De Lugo Guerrero</t>
         </is>
       </c>
       <c r="C392">
@@ -5587,7 +5587,7 @@
     <row r="397">
       <c r="B397" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerrero</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C397">
@@ -5600,7 +5600,7 @@
     <row r="398">
       <c r="B398" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C398">
@@ -5626,7 +5626,7 @@
     <row r="400">
       <c r="B400" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C400">
@@ -5678,7 +5678,7 @@
     <row r="404">
       <c r="B404" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C404">
@@ -5691,7 +5691,7 @@
     <row r="405">
       <c r="B405" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C405">
@@ -5704,7 +5704,7 @@
     <row r="406">
       <c r="B406" t="inlineStr">
         <is>
-          <t>Villa de Tezontepec</t>
+          <t>Villa De Tezontepec</t>
         </is>
       </c>
       <c r="C406">
@@ -5717,7 +5717,7 @@
     <row r="407">
       <c r="B407" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C407">
@@ -5813,7 +5813,7 @@
     <row r="414">
       <c r="B414" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C414">
@@ -5826,7 +5826,7 @@
     <row r="415">
       <c r="B415" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C415">
@@ -5943,7 +5943,7 @@
     <row r="424">
       <c r="B424" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C424">
@@ -5969,7 +5969,7 @@
     <row r="426">
       <c r="B426" t="inlineStr">
         <is>
-          <t>Huejuquilla el Alto</t>
+          <t>Huejuquilla El Alto</t>
         </is>
       </c>
       <c r="C426">
@@ -6047,7 +6047,7 @@
     <row r="432">
       <c r="B432" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C432">
@@ -6099,7 +6099,7 @@
     <row r="436">
       <c r="B436" t="inlineStr">
         <is>
-          <t>Ojuelos de Jalisco</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C436">
@@ -6151,7 +6151,7 @@
     <row r="440">
       <c r="B440" t="inlineStr">
         <is>
-          <t>San Diego de Alejandría</t>
+          <t>San Diego De Alejandría</t>
         </is>
       </c>
       <c r="C440">
@@ -6190,7 +6190,7 @@
     <row r="443">
       <c r="B443" t="inlineStr">
         <is>
-          <t>San Martín de Bolaños</t>
+          <t>San Martín De Bolaños</t>
         </is>
       </c>
       <c r="C443">
@@ -6203,7 +6203,7 @@
     <row r="444">
       <c r="B444" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C444">
@@ -6229,7 +6229,7 @@
     <row r="446">
       <c r="B446" t="inlineStr">
         <is>
-          <t>Santa María de los Ángeles</t>
+          <t>Santa María De Los Ángeles</t>
         </is>
       </c>
       <c r="C446">
@@ -6255,7 +6255,7 @@
     <row r="448">
       <c r="B448" t="inlineStr">
         <is>
-          <t>Talpa de Allende</t>
+          <t>Talpa De Allende</t>
         </is>
       </c>
       <c r="C448">
@@ -6268,7 +6268,7 @@
     <row r="449">
       <c r="B449" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C449">
@@ -6307,7 +6307,7 @@
     <row r="452">
       <c r="B452" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C452">
@@ -6333,7 +6333,7 @@
     <row r="454">
       <c r="B454" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C454">
@@ -6398,7 +6398,7 @@
     <row r="459">
       <c r="B459" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C459">
@@ -6411,7 +6411,7 @@
     <row r="460">
       <c r="B460" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C460">
@@ -6424,7 +6424,7 @@
     <row r="461">
       <c r="B461" t="inlineStr">
         <is>
-          <t>Valle de Juárez</t>
+          <t>Valle De Juárez</t>
         </is>
       </c>
       <c r="C461">
@@ -6489,7 +6489,7 @@
     <row r="466">
       <c r="B466" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C466">
@@ -6515,7 +6515,7 @@
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>Michoacán de Ocampo</t>
+          <t>Michoacán De Ocampo</t>
         </is>
       </c>
       <c r="B468" t="inlineStr">
@@ -7248,7 +7248,7 @@
     <row r="524">
       <c r="B524" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C524">
@@ -7669,7 +7669,7 @@
     <row r="556">
       <c r="B556" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C556">
@@ -7708,7 +7708,7 @@
     <row r="559">
       <c r="B559" t="inlineStr">
         <is>
-          <t>Tetela del Volcán</t>
+          <t>Tetela Del Volcán</t>
         </is>
       </c>
       <c r="C559">
@@ -7721,7 +7721,7 @@
     <row r="560">
       <c r="B560" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C560">
@@ -7817,7 +7817,7 @@
     <row r="567">
       <c r="B567" t="inlineStr">
         <is>
-          <t>Bahía de Banderas</t>
+          <t>Bahía De Banderas</t>
         </is>
       </c>
       <c r="C567">
@@ -7856,7 +7856,7 @@
     <row r="570">
       <c r="B570" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C570">
@@ -7908,7 +7908,7 @@
     <row r="574">
       <c r="B574" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C574">
@@ -8160,7 +8160,7 @@
     <row r="593">
       <c r="B593" t="inlineStr">
         <is>
-          <t>Mier y Noriega</t>
+          <t>Mier Y Noriega</t>
         </is>
       </c>
       <c r="C593">
@@ -8199,7 +8199,7 @@
     <row r="596">
       <c r="B596" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C596">
@@ -8230,7 +8230,7 @@
       </c>
       <c r="B598" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C598">
@@ -8295,7 +8295,7 @@
     <row r="603">
       <c r="B603" t="inlineStr">
         <is>
-          <t>Cuilápam de Guerrero</t>
+          <t>Cuilápam De Guerrero</t>
         </is>
       </c>
       <c r="C603">
@@ -8308,7 +8308,7 @@
     <row r="604">
       <c r="B604" t="inlineStr">
         <is>
-          <t>Fresnillo de Trujano</t>
+          <t>Fresnillo De Trujano</t>
         </is>
       </c>
       <c r="C604">
@@ -8321,7 +8321,7 @@
     <row r="605">
       <c r="B605" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C605">
@@ -8334,7 +8334,7 @@
     <row r="606">
       <c r="B606" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C606">
@@ -8347,7 +8347,7 @@
     <row r="607">
       <c r="B607" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C607">
@@ -8360,7 +8360,7 @@
     <row r="608">
       <c r="B608" t="inlineStr">
         <is>
-          <t>Huajuapan de León</t>
+          <t>Huajuapan De León</t>
         </is>
       </c>
       <c r="C608">
@@ -8386,7 +8386,7 @@
     <row r="610">
       <c r="B610" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C610">
@@ -8438,7 +8438,7 @@
     <row r="614">
       <c r="B614" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C614">
@@ -8451,7 +8451,7 @@
     <row r="615">
       <c r="B615" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C615">
@@ -8464,7 +8464,7 @@
     <row r="616">
       <c r="B616" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C616">
@@ -8490,7 +8490,7 @@
     <row r="618">
       <c r="B618" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C618">
@@ -8503,7 +8503,7 @@
     <row r="619">
       <c r="B619" t="inlineStr">
         <is>
-          <t>Reforma de Pineda</t>
+          <t>Reforma De Pineda</t>
         </is>
       </c>
       <c r="C619">
@@ -8568,7 +8568,7 @@
     <row r="624">
       <c r="B624" t="inlineStr">
         <is>
-          <t>San Antonino el Alto</t>
+          <t>San Antonino El Alto</t>
         </is>
       </c>
       <c r="C624">
@@ -8581,7 +8581,7 @@
     <row r="625">
       <c r="B625" t="inlineStr">
         <is>
-          <t>San Antonio de la Cal</t>
+          <t>San Antonio De La Cal</t>
         </is>
       </c>
       <c r="C625">
@@ -9465,7 +9465,7 @@
     <row r="693">
       <c r="B693" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C693">
@@ -9530,7 +9530,7 @@
     <row r="698">
       <c r="B698" t="inlineStr">
         <is>
-          <t>Tataltepec de Valdés</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C698">
@@ -9543,7 +9543,7 @@
     <row r="699">
       <c r="B699" t="inlineStr">
         <is>
-          <t>Teotitlán de Flores Magón</t>
+          <t>Teotitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C699">
@@ -9556,7 +9556,7 @@
     <row r="700">
       <c r="B700" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C700">
@@ -9569,7 +9569,7 @@
     <row r="701">
       <c r="B701" t="inlineStr">
         <is>
-          <t>Totontepec Villa de Morelos</t>
+          <t>Totontepec Villa De Morelos</t>
         </is>
       </c>
       <c r="C701">
@@ -9582,7 +9582,7 @@
     <row r="702">
       <c r="B702" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C702">
@@ -9595,7 +9595,7 @@
     <row r="703">
       <c r="B703" t="inlineStr">
         <is>
-          <t>Villa de Tututepec de Melchor Ocampo</t>
+          <t>Villa De Tututepec De Melchor Ocampo</t>
         </is>
       </c>
       <c r="C703">
@@ -9608,7 +9608,7 @@
     <row r="704">
       <c r="B704" t="inlineStr">
         <is>
-          <t>Villa de Zaachila</t>
+          <t>Villa De Zaachila</t>
         </is>
       </c>
       <c r="C704">
@@ -9621,7 +9621,7 @@
     <row r="705">
       <c r="B705" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C705">
@@ -9925,7 +9925,7 @@
     <row r="728">
       <c r="B728" t="inlineStr">
         <is>
-          <t>Cuetzalan del Progreso</t>
+          <t>Cuetzalan Del Progreso</t>
         </is>
       </c>
       <c r="C728">
@@ -9990,7 +9990,7 @@
     <row r="733">
       <c r="B733" t="inlineStr">
         <is>
-          <t>Huehuetlán el Chico</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C733">
@@ -10003,7 +10003,7 @@
     <row r="734">
       <c r="B734" t="inlineStr">
         <is>
-          <t>Huehuetlán el Grande</t>
+          <t>Huehuetlán El Grande</t>
         </is>
       </c>
       <c r="C734">
@@ -10068,7 +10068,7 @@
     <row r="739">
       <c r="B739" t="inlineStr">
         <is>
-          <t>Ixcamilpa de Guerrero</t>
+          <t>Ixcamilpa De Guerrero</t>
         </is>
       </c>
       <c r="C739">
@@ -10107,7 +10107,7 @@
     <row r="742">
       <c r="B742" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C742">
@@ -10367,7 +10367,7 @@
     <row r="762">
       <c r="B762" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C762">
@@ -10380,7 +10380,7 @@
     <row r="763">
       <c r="B763" t="inlineStr">
         <is>
-          <t>Teteles de Avila Castillo</t>
+          <t>Teteles De Avila Castillo</t>
         </is>
       </c>
       <c r="C763">
@@ -10419,7 +10419,7 @@
     <row r="766">
       <c r="B766" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C766">
@@ -10645,7 +10645,7 @@
       </c>
       <c r="B783" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C783">
@@ -10671,7 +10671,7 @@
     <row r="785">
       <c r="B785" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C785">
@@ -10736,7 +10736,7 @@
     <row r="790">
       <c r="B790" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C790">
@@ -10749,7 +10749,7 @@
     <row r="791">
       <c r="B791" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C791">
@@ -10788,7 +10788,7 @@
     <row r="794">
       <c r="B794" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C794">
@@ -10827,7 +10827,7 @@
     <row r="797">
       <c r="B797" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C797">
@@ -10954,7 +10954,7 @@
     <row r="806">
       <c r="B806" t="inlineStr">
         <is>
-          <t>Axtla de Terrazas</t>
+          <t>Axtla De Terrazas</t>
         </is>
       </c>
       <c r="C806">
@@ -11032,7 +11032,7 @@
     <row r="812">
       <c r="B812" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C812">
@@ -11110,7 +11110,7 @@
     <row r="818">
       <c r="B818" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C818">
@@ -11175,7 +11175,7 @@
     <row r="823">
       <c r="B823" t="inlineStr">
         <is>
-          <t>San Ciro de Acosta</t>
+          <t>San Ciro De Acosta</t>
         </is>
       </c>
       <c r="C823">
@@ -11253,7 +11253,7 @@
     <row r="829">
       <c r="B829" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C829">
@@ -11279,7 +11279,7 @@
     <row r="831">
       <c r="B831" t="inlineStr">
         <is>
-          <t>Soledad de Graciano Sánchez</t>
+          <t>Soledad De Graciano Sánchez</t>
         </is>
       </c>
       <c r="C831">
@@ -11344,7 +11344,7 @@
     <row r="836">
       <c r="B836" t="inlineStr">
         <is>
-          <t>Tanquián de Escobedo</t>
+          <t>Tanquián De Escobedo</t>
         </is>
       </c>
       <c r="C836">
@@ -11409,7 +11409,7 @@
     <row r="841">
       <c r="B841" t="inlineStr">
         <is>
-          <t>Villa de Arista</t>
+          <t>Villa De Arista</t>
         </is>
       </c>
       <c r="C841">
@@ -11422,7 +11422,7 @@
     <row r="842">
       <c r="B842" t="inlineStr">
         <is>
-          <t>Villa de Arriaga</t>
+          <t>Villa De Arriaga</t>
         </is>
       </c>
       <c r="C842">
@@ -11435,7 +11435,7 @@
     <row r="843">
       <c r="B843" t="inlineStr">
         <is>
-          <t>Villa de Guadalupe</t>
+          <t>Villa De Guadalupe</t>
         </is>
       </c>
       <c r="C843">
@@ -11448,7 +11448,7 @@
     <row r="844">
       <c r="B844" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C844">
@@ -11461,7 +11461,7 @@
     <row r="845">
       <c r="B845" t="inlineStr">
         <is>
-          <t>Villa de Reyes</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C845">
@@ -11474,7 +11474,7 @@
     <row r="846">
       <c r="B846" t="inlineStr">
         <is>
-          <t>Villa de la Paz</t>
+          <t>Villa De La Paz</t>
         </is>
       </c>
       <c r="C846">
@@ -12287,7 +12287,7 @@
     <row r="907">
       <c r="B907" t="inlineStr">
         <is>
-          <t>Soto la Marina</t>
+          <t>Soto La Marina</t>
         </is>
       </c>
       <c r="C907">
@@ -12435,7 +12435,7 @@
     <row r="918">
       <c r="B918" t="inlineStr">
         <is>
-          <t>Ixtacuixtla de Mariano Matamoros</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C918">
@@ -12552,7 +12552,7 @@
     <row r="927">
       <c r="A927" t="inlineStr">
         <is>
-          <t>Veracruz de Ignacio de la Llave</t>
+          <t>Veracruz De Ignacio De La Llave</t>
         </is>
       </c>
       <c r="B927" t="inlineStr">
@@ -12635,7 +12635,7 @@
     <row r="933">
       <c r="B933" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C933">
@@ -12700,7 +12700,7 @@
     <row r="938">
       <c r="B938" t="inlineStr">
         <is>
-          <t>Boca del Río</t>
+          <t>Boca Del Río</t>
         </is>
       </c>
       <c r="C938">
@@ -12726,7 +12726,7 @@
     <row r="940">
       <c r="B940" t="inlineStr">
         <is>
-          <t>Castillo de Teayo</t>
+          <t>Castillo De Teayo</t>
         </is>
       </c>
       <c r="C940">
@@ -12752,7 +12752,7 @@
     <row r="942">
       <c r="B942" t="inlineStr">
         <is>
-          <t>Cazones de Herrera</t>
+          <t>Cazones De Herrera</t>
         </is>
       </c>
       <c r="C942">
@@ -12882,7 +12882,7 @@
     <row r="952">
       <c r="B952" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C952">
@@ -13064,7 +13064,7 @@
     <row r="966">
       <c r="B966" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C966">
@@ -13077,7 +13077,7 @@
     <row r="967">
       <c r="B967" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C967">
@@ -13116,7 +13116,7 @@
     <row r="970">
       <c r="B970" t="inlineStr">
         <is>
-          <t>Ixhuacán de los Reyes</t>
+          <t>Ixhuacán De Los Reyes</t>
         </is>
       </c>
       <c r="C970">
@@ -13129,7 +13129,7 @@
     <row r="971">
       <c r="B971" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C971">
@@ -13142,7 +13142,7 @@
     <row r="972">
       <c r="B972" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Sureste</t>
+          <t>Ixhuatlán Del Sureste</t>
         </is>
       </c>
       <c r="C972">
@@ -13233,7 +13233,7 @@
     <row r="979">
       <c r="B979" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C979">
@@ -13285,7 +13285,7 @@
     <row r="983">
       <c r="B983" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C983">
@@ -13311,7 +13311,7 @@
     <row r="985">
       <c r="B985" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C985">
@@ -13441,7 +13441,7 @@
     <row r="995">
       <c r="B995" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C995">
@@ -13480,7 +13480,7 @@
     <row r="998">
       <c r="B998" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C998">
@@ -13558,7 +13558,7 @@
     <row r="1004">
       <c r="B1004" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C1004">
@@ -13571,7 +13571,7 @@
     <row r="1005">
       <c r="B1005" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C1005">
@@ -14036,7 +14036,7 @@
     <row r="1040">
       <c r="B1040" t="inlineStr">
         <is>
-          <t>Concepción del Oro</t>
+          <t>Concepción Del Oro</t>
         </is>
       </c>
       <c r="C1040">
@@ -14127,7 +14127,7 @@
     <row r="1047">
       <c r="B1047" t="inlineStr">
         <is>
-          <t>Jiménez del Teul</t>
+          <t>Jiménez Del Teul</t>
         </is>
       </c>
       <c r="C1047">
@@ -14231,7 +14231,7 @@
     <row r="1055">
       <c r="B1055" t="inlineStr">
         <is>
-          <t>Moyahua de Estrada</t>
+          <t>Moyahua De Estrada</t>
         </is>
       </c>
       <c r="C1055">
@@ -14244,7 +14244,7 @@
     <row r="1056">
       <c r="B1056" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C1056">
@@ -14387,7 +14387,7 @@
     <row r="1067">
       <c r="B1067" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C1067">
@@ -14452,7 +14452,7 @@
     <row r="1072">
       <c r="B1072" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C1072">
@@ -14504,7 +14504,7 @@
     <row r="1076">
       <c r="A1076" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C1076">
@@ -14512,41 +14512,6 @@
       </c>
       <c r="D1076">
         <v>1</v>
-      </c>
-    </row>
-    <row r="1078">
-      <c r="A1078" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 808,027</t>
-        </is>
-      </c>
-    </row>
-    <row r="1079">
-      <c r="A1079" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1080">
-      <c r="A1080" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de Mexicanas y Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="1081">
-      <c r="A1081" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="1082">
-      <c r="A1082" t="inlineStr">
-        <is>
-          <t>Junio de 2025</t>
-        </is>
       </c>
     </row>
   </sheetData>
